--- a/Teamcontract & Urenplanning/Urenplanning en verantwoording.xlsx
+++ b/Teamcontract & Urenplanning/Urenplanning en verantwoording.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ti-software\WERKENDE_VERSIE\Thema-Opdracht-Devices-HU\Teamcontract &amp; Urenplanning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="21570" windowHeight="8085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,57 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="M25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Bij vorig groepje besteed aan modelleren en nulversie
+	-Arsalan Anwari</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>STD aanpassen en bijwerken
+Interface toevoegen STD
+Concurrency aanpassen
+Initieel Class Diagram aanpassen
+Class Diagram aanpassen
+Samenvoegen Modellen en checken
+Samenvoegen Spelleider en Wapen
+Uitbreiden en bugfixes project
+Countdown implementeren
+Doxygen
+C++ Software Rules toepassen
+Onderzoeksverlag afronden
+GitHub bijwerken
+Urenplanning bijwerken
+	-Arsalan Anwari</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
   <si>
     <t xml:space="preserve">Planning en registratie van de uren </t>
   </si>
@@ -42,7 +91,7 @@
     <t>Jeffrey de Waal</t>
   </si>
   <si>
-    <t xml:space="preserve">Araslan Amwari </t>
+    <t xml:space="preserve">Arsalan Amwari </t>
   </si>
   <si>
     <t>lesweek</t>
@@ -82,9 +131,6 @@
     <t>Taakstructeringschema</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Concurency diagram</t>
   </si>
   <si>
@@ -98,6 +144,9 @@
   </si>
   <si>
     <t>Aanpassing klassendiagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARSALAN WEEK 1 </t>
   </si>
   <si>
     <t>DEADLINE</t>
@@ -151,7 +200,13 @@
     <t>Testen van het ontwerp</t>
   </si>
   <si>
+    <t>Concept onderzoeksverslag opstellen</t>
+  </si>
+  <si>
     <t>Inleveren concept onderzoeksrapport</t>
+  </si>
+  <si>
+    <t>Verwerken feedback onderzoeksrapport</t>
   </si>
   <si>
     <t>Projectweek 3</t>
@@ -160,26 +215,68 @@
     <t>Feedback onderzoeksrapport</t>
   </si>
   <si>
-    <t>verbeteren project</t>
+    <t>Verbeteren project</t>
   </si>
   <si>
-    <t>uitbreiden project</t>
+    <t>Uitbreiden en bugfixes project</t>
   </si>
   <si>
-    <t>Na lopen van het project</t>
+    <t>STD aanpassen en bijwerken</t>
+  </si>
+  <si>
+    <t>Interface toevoegen STD</t>
+  </si>
+  <si>
+    <t>Concurrency aanpassen</t>
+  </si>
+  <si>
+    <t>Initieel Class Diagram aanpassen</t>
+  </si>
+  <si>
+    <t>Class Diagram aanpassen</t>
+  </si>
+  <si>
+    <t>Samenvoegen Modellen en checken</t>
+  </si>
+  <si>
+    <t>Samenvoegen Spelleider en Wapen</t>
+  </si>
+  <si>
+    <t>Countdown implementeren</t>
+  </si>
+  <si>
+    <t>Doxygen</t>
+  </si>
+  <si>
+    <t>C++ Software Rules toepassen</t>
+  </si>
+  <si>
+    <t>Onderzoeksverlag afronden</t>
+  </si>
+  <si>
+    <t>GitHub bijwerken</t>
+  </si>
+  <si>
+    <t>Urenplanning bijwerken</t>
   </si>
   <si>
     <t>Inleveren alle eindproducten</t>
   </si>
   <si>
+    <t>Demonstratie</t>
+  </si>
+  <si>
     <t>Totaal</t>
+  </si>
+  <si>
+    <t>Should have verwerken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -225,6 +322,16 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -278,14 +385,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0C0C0C"/>
-        <bgColor rgb="FF0C0C0C"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF0C0C0C"/>
+        <bgColor rgb="FF0C0C0C"/>
       </patternFill>
     </fill>
   </fills>
@@ -425,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -485,6 +592,9 @@
     <xf numFmtId="2" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -499,6 +609,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -506,6 +625,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -535,9 +657,6 @@
     <xf numFmtId="16" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -551,15 +670,10 @@
     <xf numFmtId="2" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -575,9 +689,46 @@
     <xf numFmtId="2" fontId="9" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -595,9 +746,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="11" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -612,8 +776,62 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="Tekstvak 3" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B6EBDA-41EE-4D48-87FB-9854D4FAEC9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -908,11 +1126,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1003"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -997,26 +1215,26 @@
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70" t="s">
+      <c r="E3" s="87"/>
+      <c r="F3" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70" t="s">
+      <c r="G3" s="87"/>
+      <c r="H3" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70" t="s">
+      <c r="I3" s="87"/>
+      <c r="J3" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="69"/>
-      <c r="L3" s="70" t="s">
+      <c r="K3" s="87"/>
+      <c r="L3" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="69"/>
+      <c r="M3" s="87"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
@@ -1132,19 +1350,27 @@
       <c r="F6" s="24">
         <v>1</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25">
+      <c r="G6" s="25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="26">
         <v>1</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="27">
+      <c r="I6" s="27">
+        <v>0</v>
+      </c>
+      <c r="J6" s="28">
         <v>1</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="28">
         <v>1</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
+      <c r="L6" s="29">
+        <v>0</v>
+      </c>
+      <c r="M6" s="29">
+        <v>0</v>
+      </c>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
@@ -1162,7 +1388,7 @@
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="21"/>
       <c r="B7" s="22"/>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="30" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="23">
@@ -1174,19 +1400,27 @@
       <c r="F7" s="24">
         <v>4</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25">
+      <c r="G7" s="25">
+        <v>0</v>
+      </c>
+      <c r="H7" s="26">
         <v>4</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="27">
+      <c r="I7" s="27">
+        <v>0</v>
+      </c>
+      <c r="J7" s="28">
         <v>4</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="28">
         <v>3</v>
       </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
+      <c r="L7" s="29">
+        <v>0</v>
+      </c>
+      <c r="M7" s="29">
+        <v>0</v>
+      </c>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
@@ -1204,7 +1438,7 @@
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
       <c r="B8" s="22"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="23">
@@ -1216,19 +1450,27 @@
       <c r="F8" s="24">
         <v>1</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25">
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="26">
         <v>1</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27">
+      <c r="I8" s="27">
+        <v>0</v>
+      </c>
+      <c r="J8" s="28">
         <v>1</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="28">
         <v>2</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
+      <c r="L8" s="29">
+        <v>0</v>
+      </c>
+      <c r="M8" s="29">
+        <v>0</v>
+      </c>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
@@ -1246,17 +1488,17 @@
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
-      <c r="C9" s="29"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
@@ -1276,23 +1518,39 @@
       <c r="B10" s="22">
         <v>43032</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="26">
+      <c r="D10" s="33">
+        <v>0</v>
+      </c>
+      <c r="E10" s="33">
+        <v>0</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0</v>
+      </c>
+      <c r="H10" s="27">
         <v>2</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="27">
         <v>2</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
+      <c r="J10" s="34">
+        <v>0</v>
+      </c>
+      <c r="K10" s="34">
+        <v>0</v>
+      </c>
+      <c r="L10" s="29">
+        <v>0</v>
+      </c>
+      <c r="M10" s="29">
+        <v>0</v>
+      </c>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
@@ -1309,7 +1567,7 @@
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21"/>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="30" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="23">
@@ -1324,20 +1582,24 @@
       <c r="G11" s="24">
         <v>2</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="27">
         <v>2</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="26">
         <v>2</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="28">
         <v>4</v>
       </c>
-      <c r="K11" s="27">
+      <c r="K11" s="28">
         <v>4</v>
       </c>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
+      <c r="L11" s="29">
+        <v>0</v>
+      </c>
+      <c r="M11" s="29">
+        <v>0</v>
+      </c>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
@@ -1353,35 +1615,41 @@
       <c r="Z11" s="13"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="38">
         <v>2</v>
       </c>
-      <c r="E12" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="35">
+      <c r="E12" s="39">
+        <v>0</v>
+      </c>
+      <c r="F12" s="40">
         <v>2</v>
       </c>
       <c r="G12" s="24">
         <v>2</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="26">
         <v>2</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="26">
         <v>1</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="28">
         <v>2</v>
       </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
+      <c r="K12" s="34">
+        <v>0</v>
+      </c>
+      <c r="L12" s="29">
+        <v>0</v>
+      </c>
+      <c r="M12" s="29">
+        <v>0</v>
+      </c>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
@@ -1399,17 +1667,17 @@
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="29"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
@@ -1429,8 +1697,8 @@
       <c r="B14" s="22">
         <v>43033</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>21</v>
+      <c r="C14" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="D14" s="23">
         <v>2</v>
@@ -1441,21 +1709,27 @@
       <c r="F14" s="24">
         <v>2</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="41">
         <v>2</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="26">
         <v>2</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="26">
         <v>2</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="28">
         <v>2</v>
       </c>
-      <c r="K14" s="27"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
+      <c r="K14" s="34">
+        <v>0</v>
+      </c>
+      <c r="L14" s="29">
+        <v>0</v>
+      </c>
+      <c r="M14" s="29">
+        <v>0</v>
+      </c>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
@@ -1471,35 +1745,41 @@
       <c r="Z14" s="13"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="45">
         <v>2</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="45">
         <v>3</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="46">
         <v>2</v>
       </c>
       <c r="G15" s="24">
         <v>3</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="26">
         <v>2</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="27">
         <v>3</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="28">
         <v>2</v>
       </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
+      <c r="K15" s="34">
+        <v>0</v>
+      </c>
+      <c r="L15" s="29">
+        <v>0</v>
+      </c>
+      <c r="M15" s="29">
+        <v>0</v>
+      </c>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
@@ -1515,10 +1795,10 @@
       <c r="Z15" s="13"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="42"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="43" t="s">
-        <v>22</v>
+      <c r="A16" s="47"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="48" t="s">
+        <v>21</v>
       </c>
       <c r="D16" s="23">
         <v>2</v>
@@ -1532,18 +1812,24 @@
       <c r="G16" s="24">
         <v>1</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="26">
         <v>2</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="26">
         <v>1</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="28">
         <v>2</v>
       </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
+      <c r="K16" s="34">
+        <v>0</v>
+      </c>
+      <c r="L16" s="29">
+        <v>0</v>
+      </c>
+      <c r="M16" s="29">
+        <v>0</v>
+      </c>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
@@ -1560,18 +1846,18 @@
     </row>
     <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
@@ -1588,11 +1874,11 @@
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
-      <c r="B18" s="44">
+      <c r="B18" s="49">
         <v>43034</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>23</v>
+      <c r="C18" s="30" t="s">
+        <v>22</v>
       </c>
       <c r="D18" s="23">
         <v>6</v>
@@ -1606,20 +1892,24 @@
       <c r="G18" s="24">
         <v>4</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="26">
         <v>6</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="26">
         <v>4</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="28">
         <v>6</v>
       </c>
-      <c r="K18" s="45">
+      <c r="K18" s="34">
         <v>1.5</v>
       </c>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
+      <c r="L18" s="29">
+        <v>0</v>
+      </c>
+      <c r="M18" s="29">
+        <v>0</v>
+      </c>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -1636,24 +1926,40 @@
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="30" t="s">
+      <c r="B19" s="49"/>
+      <c r="C19" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="26">
+      <c r="D19" s="33">
         <v>0</v>
       </c>
-      <c r="I19" s="26">
+      <c r="E19" s="33">
+        <v>0</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0</v>
+      </c>
+      <c r="G19" s="25">
+        <v>0</v>
+      </c>
+      <c r="H19" s="27">
+        <v>0</v>
+      </c>
+      <c r="I19" s="27">
         <v>1</v>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
+      <c r="J19" s="34">
+        <v>0</v>
+      </c>
+      <c r="K19" s="34">
+        <v>0</v>
+      </c>
+      <c r="L19" s="29">
+        <v>0</v>
+      </c>
+      <c r="M19" s="29">
+        <v>0</v>
+      </c>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
@@ -1671,8 +1977,8 @@
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="29" t="s">
-        <v>24</v>
+      <c r="C20" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="D20" s="23">
         <v>0</v>
@@ -1686,14 +1992,24 @@
       <c r="G20" s="24">
         <v>1</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="26">
         <v>0</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
+      <c r="I20" s="27">
+        <v>0</v>
+      </c>
+      <c r="J20" s="34">
+        <v>0</v>
+      </c>
+      <c r="K20" s="34">
+        <v>0</v>
+      </c>
+      <c r="L20" s="29">
+        <v>0</v>
+      </c>
+      <c r="M20" s="29">
+        <v>0</v>
+      </c>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
@@ -1711,17 +2027,17 @@
     <row r="21" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="29"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
@@ -1741,8 +2057,8 @@
       <c r="B22" s="22">
         <v>43035</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>23</v>
+      <c r="C22" s="30" t="s">
+        <v>22</v>
       </c>
       <c r="D22" s="23">
         <v>6</v>
@@ -1756,18 +2072,24 @@
       <c r="G22" s="24">
         <v>5</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="26">
         <v>6</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="27">
+      <c r="I22" s="27">
+        <v>0</v>
+      </c>
+      <c r="J22" s="28">
         <v>6</v>
       </c>
-      <c r="K22" s="27">
+      <c r="K22" s="28">
         <v>5</v>
       </c>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
+      <c r="L22" s="29">
+        <v>0</v>
+      </c>
+      <c r="M22" s="29">
+        <v>0</v>
+      </c>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
@@ -1785,8 +2107,8 @@
     <row r="23" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
-      <c r="C23" s="30" t="s">
-        <v>25</v>
+      <c r="C23" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="D23" s="23">
         <v>0</v>
@@ -1800,16 +2122,24 @@
       <c r="G23" s="24">
         <v>1</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="26">
         <v>0</v>
       </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27">
+      <c r="I23" s="27">
+        <v>0</v>
+      </c>
+      <c r="J23" s="34">
+        <v>0</v>
+      </c>
+      <c r="K23" s="28">
         <v>1</v>
       </c>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
+      <c r="L23" s="29">
+        <v>0</v>
+      </c>
+      <c r="M23" s="29">
+        <v>0</v>
+      </c>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
@@ -1827,17 +2157,17 @@
     <row r="24" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="29"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
@@ -1853,25 +2183,25 @@
       <c r="Z24" s="13"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="46">
-        <v>43035</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>27</v>
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="31" t="s">
+        <v>25</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29">
+        <v>35</v>
+      </c>
+      <c r="M25" s="29">
+        <v>35</v>
+      </c>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
@@ -1887,51 +2217,25 @@
       <c r="Z25" s="13"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="50">
-        <f t="shared" ref="D26:M26" si="0">SUM(D6:D25)</f>
-        <v>30</v>
-      </c>
-      <c r="E26" s="50">
-        <f t="shared" si="0"/>
+      <c r="A26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="50">
+        <v>43035</v>
+      </c>
+      <c r="C26" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="50">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G26" s="50">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="H26" s="50">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="I26" s="50">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="J26" s="50">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="K26" s="50">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
-      </c>
-      <c r="L26" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
@@ -1947,42 +2251,50 @@
       <c r="Z26" s="13"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="22">
-        <v>43038</v>
-      </c>
-      <c r="C27" s="29" t="s">
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="54">
+        <f t="shared" ref="D27:M27" si="0">SUM(D6:D26)</f>
         <v>30</v>
       </c>
-      <c r="D27" s="23">
-        <v>0</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24">
-        <v>0</v>
-      </c>
-      <c r="G27" s="24">
-        <v>4</v>
-      </c>
-      <c r="H27" s="26">
-        <v>0</v>
-      </c>
-      <c r="I27" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="J27" s="27">
-        <v>2</v>
-      </c>
-      <c r="K27" s="27">
-        <v>3</v>
-      </c>
-      <c r="L27" s="28">
-        <v>4</v>
-      </c>
-      <c r="M27" s="51">
-        <v>5</v>
+      <c r="E27" s="54">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F27" s="54">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G27" s="54">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H27" s="54">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I27" s="54">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J27" s="54">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K27" s="54">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="L27" s="54">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M27" s="54">
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
@@ -1999,38 +2311,44 @@
       <c r="Z27" s="13"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="29" t="s">
-        <v>31</v>
+      <c r="A28" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="22">
+        <v>43038</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>30</v>
       </c>
       <c r="D28" s="23">
-        <v>1</v>
-      </c>
-      <c r="E28" s="23">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E28" s="33">
+        <v>0</v>
       </c>
       <c r="F28" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="24">
+        <v>4</v>
+      </c>
+      <c r="H28" s="27">
+        <v>0</v>
+      </c>
+      <c r="I28" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="28">
         <v>2</v>
       </c>
-      <c r="H28" s="25">
-        <v>1</v>
-      </c>
-      <c r="I28" s="25">
-        <v>1</v>
-      </c>
-      <c r="J28" s="27">
-        <v>2</v>
-      </c>
-      <c r="K28" s="27"/>
-      <c r="L28" s="28">
-        <v>2</v>
-      </c>
-      <c r="M28" s="28">
-        <v>2</v>
+      <c r="K28" s="28">
+        <v>3</v>
+      </c>
+      <c r="L28" s="32">
+        <v>4</v>
+      </c>
+      <c r="M28" s="29">
+        <v>5</v>
       </c>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
@@ -2050,28 +2368,38 @@
       <c r="A29" s="21"/>
       <c r="B29" s="22"/>
       <c r="C29" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="23">
         <v>1</v>
       </c>
       <c r="F29" s="24">
+        <v>1</v>
+      </c>
+      <c r="G29" s="24">
         <v>2</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25">
+      <c r="H29" s="26">
+        <v>1</v>
+      </c>
+      <c r="I29" s="26">
+        <v>1</v>
+      </c>
+      <c r="J29" s="28">
         <v>2</v>
       </c>
-      <c r="I29" s="25">
+      <c r="K29" s="34">
+        <v>0</v>
+      </c>
+      <c r="L29" s="32">
         <v>2</v>
       </c>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
+      <c r="M29" s="32">
+        <v>2</v>
+      </c>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
@@ -2088,32 +2416,40 @@
     </row>
     <row r="30" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="30" t="s">
-        <v>33</v>
+      <c r="B30" s="22"/>
+      <c r="C30" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="D30" s="23">
         <v>2</v>
       </c>
       <c r="E30" s="23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F30" s="24">
         <v>2</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25">
+      <c r="G30" s="25">
+        <v>0</v>
+      </c>
+      <c r="H30" s="26">
         <v>2</v>
       </c>
       <c r="I30" s="26">
-        <v>4</v>
-      </c>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
+        <v>2</v>
+      </c>
+      <c r="J30" s="34">
+        <v>0</v>
+      </c>
+      <c r="K30" s="34">
+        <v>0</v>
+      </c>
+      <c r="L30" s="29">
+        <v>0</v>
+      </c>
+      <c r="M30" s="29">
+        <v>0</v>
+      </c>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
       <c r="P30" s="13"/>
@@ -2131,31 +2467,39 @@
     <row r="31" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
-      <c r="C31" s="30" t="s">
-        <v>34</v>
+      <c r="C31" s="31" t="s">
+        <v>33</v>
       </c>
       <c r="D31" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31" s="24">
-        <v>1</v>
-      </c>
-      <c r="G31" s="24">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G31" s="25">
+        <v>0</v>
       </c>
       <c r="H31" s="26">
+        <v>2</v>
+      </c>
+      <c r="I31" s="27">
+        <v>4</v>
+      </c>
+      <c r="J31" s="34">
         <v>0</v>
       </c>
-      <c r="I31" s="26"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
+      <c r="K31" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="L31" s="29">
+        <v>0</v>
+      </c>
+      <c r="M31" s="29">
+        <v>0</v>
+      </c>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
       <c r="P31" s="13"/>
@@ -2172,18 +2516,40 @@
     </row>
     <row r="32" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="23">
+        <v>1</v>
+      </c>
+      <c r="E32" s="23">
+        <v>1</v>
+      </c>
+      <c r="F32" s="24">
+        <v>1</v>
+      </c>
+      <c r="G32" s="24">
+        <v>1</v>
+      </c>
+      <c r="H32" s="27">
+        <v>0</v>
+      </c>
+      <c r="I32" s="27">
+        <v>0</v>
+      </c>
+      <c r="J32" s="34">
+        <v>0</v>
+      </c>
+      <c r="K32" s="34">
+        <v>0</v>
+      </c>
+      <c r="L32" s="29">
+        <v>0</v>
+      </c>
+      <c r="M32" s="29">
+        <v>0</v>
+      </c>
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
       <c r="P32" s="13"/>
@@ -2200,42 +2566,18 @@
     </row>
     <row r="33" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="22">
-        <v>43039</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="23">
-        <v>2</v>
-      </c>
-      <c r="E33" s="52">
-        <v>6</v>
-      </c>
-      <c r="F33" s="24">
-        <v>2</v>
-      </c>
-      <c r="G33" s="53">
-        <v>5</v>
-      </c>
-      <c r="H33" s="25">
-        <v>2</v>
-      </c>
-      <c r="I33" s="26">
-        <v>3</v>
-      </c>
-      <c r="J33" s="27">
-        <v>2</v>
-      </c>
-      <c r="K33" s="45">
-        <v>5</v>
-      </c>
-      <c r="L33" s="28">
-        <v>2</v>
-      </c>
-      <c r="M33" s="51">
-        <v>1</v>
-      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
       <c r="P33" s="13"/>
@@ -2252,38 +2594,42 @@
     </row>
     <row r="34" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="30" t="s">
-        <v>35</v>
+      <c r="B34" s="22">
+        <v>43039</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>33</v>
       </c>
       <c r="D34" s="23">
         <v>2</v>
       </c>
-      <c r="E34" s="52">
-        <v>0</v>
+      <c r="E34" s="33">
+        <v>6</v>
       </c>
       <c r="F34" s="24">
         <v>2</v>
       </c>
-      <c r="G34" s="53">
-        <v>0</v>
-      </c>
-      <c r="H34" s="25">
+      <c r="G34" s="25">
+        <v>5</v>
+      </c>
+      <c r="H34" s="26">
         <v>2</v>
       </c>
-      <c r="I34" s="26">
+      <c r="I34" s="27">
+        <v>4</v>
+      </c>
+      <c r="J34" s="28">
+        <v>2</v>
+      </c>
+      <c r="K34" s="34">
+        <v>5</v>
+      </c>
+      <c r="L34" s="32">
+        <v>2</v>
+      </c>
+      <c r="M34" s="29">
         <v>1</v>
       </c>
-      <c r="J34" s="27">
-        <v>2</v>
-      </c>
-      <c r="K34" s="45">
-        <v>1</v>
-      </c>
-      <c r="L34" s="28">
-        <v>2</v>
-      </c>
-      <c r="M34" s="28"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
@@ -2301,33 +2647,39 @@
     <row r="35" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
-      <c r="C35" s="30" t="s">
-        <v>36</v>
+      <c r="C35" s="31" t="s">
+        <v>35</v>
       </c>
       <c r="D35" s="23">
         <v>2</v>
       </c>
-      <c r="E35" s="52">
+      <c r="E35" s="33">
         <v>0</v>
       </c>
       <c r="F35" s="24">
         <v>2</v>
       </c>
-      <c r="G35" s="53">
+      <c r="G35" s="25">
         <v>0</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="26">
         <v>2</v>
       </c>
-      <c r="I35" s="25"/>
-      <c r="J35" s="27">
+      <c r="I35" s="27">
+        <v>1</v>
+      </c>
+      <c r="J35" s="28">
         <v>2</v>
       </c>
-      <c r="K35" s="27"/>
-      <c r="L35" s="28">
+      <c r="K35" s="34">
+        <v>1</v>
+      </c>
+      <c r="L35" s="32">
         <v>2</v>
       </c>
-      <c r="M35" s="28"/>
+      <c r="M35" s="29">
+        <v>0</v>
+      </c>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
@@ -2345,23 +2697,39 @@
     <row r="36" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
-      <c r="C36" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="52"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="24"/>
+      <c r="C36" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="23">
+        <v>2</v>
+      </c>
+      <c r="E36" s="33">
+        <v>0</v>
+      </c>
+      <c r="F36" s="24">
+        <v>2</v>
+      </c>
+      <c r="G36" s="25">
+        <v>0</v>
+      </c>
       <c r="H36" s="26">
         <v>2</v>
       </c>
-      <c r="I36" s="26">
-        <v>1</v>
-      </c>
-      <c r="J36" s="45"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="28"/>
+      <c r="I36" s="27">
+        <v>0</v>
+      </c>
+      <c r="J36" s="28">
+        <v>2</v>
+      </c>
+      <c r="K36" s="34">
+        <v>0</v>
+      </c>
+      <c r="L36" s="32">
+        <v>2</v>
+      </c>
+      <c r="M36" s="29">
+        <v>0</v>
+      </c>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
@@ -2379,30 +2747,38 @@
     <row r="37" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
-      <c r="C37" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="52">
+      <c r="C37" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="33">
         <v>0</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="53">
+      <c r="E37" s="33">
+        <v>0</v>
+      </c>
+      <c r="F37" s="25">
+        <v>0</v>
+      </c>
+      <c r="G37" s="25">
+        <v>0</v>
+      </c>
+      <c r="H37" s="27">
         <v>2</v>
       </c>
-      <c r="G37" s="53">
+      <c r="I37" s="27">
         <v>1</v>
       </c>
-      <c r="H37" s="26">
+      <c r="J37" s="34">
         <v>0</v>
       </c>
-      <c r="I37" s="26">
-        <v>1</v>
-      </c>
-      <c r="J37" s="45"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51">
-        <v>6</v>
+      <c r="K37" s="34">
+        <v>0</v>
+      </c>
+      <c r="L37" s="29">
+        <v>0</v>
+      </c>
+      <c r="M37" s="29">
+        <v>0</v>
       </c>
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
@@ -2421,17 +2797,39 @@
     <row r="38" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
+      <c r="C38" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="33">
+        <v>0</v>
+      </c>
+      <c r="E38" s="33">
+        <v>0</v>
+      </c>
+      <c r="F38" s="25">
+        <v>2</v>
+      </c>
+      <c r="G38" s="25">
+        <v>1</v>
+      </c>
+      <c r="H38" s="27">
+        <v>0</v>
+      </c>
+      <c r="I38" s="27">
+        <v>1</v>
+      </c>
+      <c r="J38" s="34">
+        <v>0</v>
+      </c>
+      <c r="K38" s="34">
+        <v>0</v>
+      </c>
+      <c r="L38" s="29">
+        <v>0</v>
+      </c>
+      <c r="M38" s="29">
+        <v>6</v>
+      </c>
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
@@ -2448,26 +2846,18 @@
     </row>
     <row r="39" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="22">
-        <v>43040</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="23">
-        <v>5</v>
-      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="23"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="27">
-        <v>5</v>
-      </c>
-      <c r="K39" s="27"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
       <c r="P39" s="13"/>
@@ -2484,26 +2874,42 @@
     </row>
     <row r="40" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="24">
+      <c r="B40" s="22">
+        <v>43040</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="23">
         <v>5</v>
       </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="25">
+      <c r="E40" s="33">
+        <v>1</v>
+      </c>
+      <c r="F40" s="25">
+        <v>0</v>
+      </c>
+      <c r="G40" s="25">
+        <v>0</v>
+      </c>
+      <c r="H40" s="27">
+        <v>0</v>
+      </c>
+      <c r="I40" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="J40" s="28">
         <v>5</v>
       </c>
-      <c r="I40" s="25"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="28">
-        <v>5</v>
-      </c>
-      <c r="M40" s="28"/>
+      <c r="K40" s="34">
+        <v>2</v>
+      </c>
+      <c r="L40" s="29">
+        <v>0</v>
+      </c>
+      <c r="M40" s="29">
+        <v>0</v>
+      </c>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
       <c r="P40" s="13"/>
@@ -2522,28 +2928,38 @@
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="23">
-        <v>1</v>
-      </c>
-      <c r="E41" s="23"/>
+        <v>38</v>
+      </c>
+      <c r="D41" s="33">
+        <v>0</v>
+      </c>
+      <c r="E41" s="33">
+        <v>4.5</v>
+      </c>
       <c r="F41" s="24">
-        <v>1</v>
-      </c>
-      <c r="G41" s="24"/>
-      <c r="H41" s="25">
-        <v>1</v>
-      </c>
-      <c r="I41" s="25"/>
-      <c r="J41" s="27">
-        <v>1</v>
-      </c>
-      <c r="K41" s="27"/>
-      <c r="L41" s="28">
-        <v>1</v>
-      </c>
-      <c r="M41" s="28"/>
+        <v>5</v>
+      </c>
+      <c r="G41" s="25">
+        <v>4</v>
+      </c>
+      <c r="H41" s="26">
+        <v>5</v>
+      </c>
+      <c r="I41" s="27">
+        <v>4</v>
+      </c>
+      <c r="J41" s="34">
+        <v>0</v>
+      </c>
+      <c r="K41" s="34">
+        <v>5</v>
+      </c>
+      <c r="L41" s="32">
+        <v>5</v>
+      </c>
+      <c r="M41" s="29">
+        <v>6</v>
+      </c>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
       <c r="P41" s="13"/>
@@ -2560,18 +2976,40 @@
     </row>
     <row r="42" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="23">
+        <v>1</v>
+      </c>
+      <c r="E42" s="33">
+        <v>1</v>
+      </c>
+      <c r="F42" s="24">
+        <v>1</v>
+      </c>
+      <c r="G42" s="25">
+        <v>3</v>
+      </c>
+      <c r="H42" s="26">
+        <v>1</v>
+      </c>
+      <c r="I42" s="27">
+        <v>1</v>
+      </c>
+      <c r="J42" s="28">
+        <v>1</v>
+      </c>
+      <c r="K42" s="34">
+        <v>1</v>
+      </c>
+      <c r="L42" s="32">
+        <v>1</v>
+      </c>
+      <c r="M42" s="29">
+        <v>2</v>
+      </c>
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
       <c r="P42" s="13"/>
@@ -2588,26 +3026,18 @@
     </row>
     <row r="43" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="22">
-        <v>43041</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="23">
-        <v>5</v>
-      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="23"/>
       <c r="E43" s="23"/>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="27">
-        <v>5</v>
-      </c>
-      <c r="K43" s="27"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
       <c r="P43" s="13"/>
@@ -2624,26 +3054,42 @@
     </row>
     <row r="44" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="24">
+      <c r="B44" s="22">
+        <v>43041</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="23">
         <v>5</v>
       </c>
-      <c r="G44" s="24"/>
-      <c r="H44" s="25">
+      <c r="E44" s="55">
+        <v>1</v>
+      </c>
+      <c r="F44" s="25">
+        <v>0</v>
+      </c>
+      <c r="G44" s="25">
+        <v>1</v>
+      </c>
+      <c r="H44" s="27">
+        <v>0</v>
+      </c>
+      <c r="I44" s="27">
+        <v>0</v>
+      </c>
+      <c r="J44" s="28">
         <v>5</v>
       </c>
-      <c r="I44" s="25"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="28">
-        <v>5</v>
-      </c>
-      <c r="M44" s="28"/>
+      <c r="K44" s="34">
+        <v>2</v>
+      </c>
+      <c r="L44" s="29">
+        <v>0</v>
+      </c>
+      <c r="M44" s="29">
+        <v>0</v>
+      </c>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
       <c r="P44" s="13"/>
@@ -2661,29 +3107,39 @@
     <row r="45" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
-      <c r="C45" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="23">
-        <v>1</v>
-      </c>
-      <c r="E45" s="23"/>
+      <c r="C45" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="33">
+        <v>0</v>
+      </c>
+      <c r="E45" s="33">
+        <v>4</v>
+      </c>
       <c r="F45" s="24">
-        <v>1</v>
-      </c>
-      <c r="G45" s="24"/>
-      <c r="H45" s="25">
-        <v>1</v>
-      </c>
-      <c r="I45" s="25"/>
-      <c r="J45" s="27">
-        <v>1</v>
-      </c>
-      <c r="K45" s="27"/>
-      <c r="L45" s="28">
-        <v>1</v>
-      </c>
-      <c r="M45" s="28"/>
+        <v>5</v>
+      </c>
+      <c r="G45" s="25">
+        <v>2</v>
+      </c>
+      <c r="H45" s="26">
+        <v>5</v>
+      </c>
+      <c r="I45" s="27">
+        <v>4</v>
+      </c>
+      <c r="J45" s="34">
+        <v>0</v>
+      </c>
+      <c r="K45" s="34">
+        <v>5</v>
+      </c>
+      <c r="L45" s="32">
+        <v>5</v>
+      </c>
+      <c r="M45" s="29">
+        <v>6</v>
+      </c>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
@@ -2700,17 +3156,40 @@
     </row>
     <row r="46" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="23">
+        <v>1</v>
+      </c>
+      <c r="E46" s="33">
+        <v>1</v>
+      </c>
+      <c r="F46" s="24">
+        <v>1</v>
+      </c>
+      <c r="G46" s="25">
+        <v>4</v>
+      </c>
+      <c r="H46" s="26">
+        <v>1</v>
+      </c>
+      <c r="I46" s="27">
+        <v>1</v>
+      </c>
+      <c r="J46" s="28">
+        <v>1</v>
+      </c>
+      <c r="K46" s="34">
+        <v>0</v>
+      </c>
+      <c r="L46" s="32">
+        <v>1</v>
+      </c>
+      <c r="M46" s="29">
+        <v>1</v>
+      </c>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
@@ -2727,32 +3206,17 @@
     </row>
     <row r="47" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="22">
-        <v>43042</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="23">
-        <v>3</v>
-      </c>
+      <c r="C47" s="30"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="23"/>
-      <c r="F47" s="24">
-        <v>3</v>
-      </c>
+      <c r="F47" s="24"/>
       <c r="G47" s="24"/>
-      <c r="H47" s="25">
-        <v>3</v>
-      </c>
-      <c r="I47" s="25"/>
-      <c r="J47" s="27">
-        <v>3</v>
-      </c>
-      <c r="K47" s="27"/>
-      <c r="L47" s="28">
-        <v>3</v>
-      </c>
-      <c r="M47" s="28"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
       <c r="P47" s="13"/>
@@ -2769,30 +3233,42 @@
     </row>
     <row r="48" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="29" t="s">
-        <v>42</v>
+      <c r="B48" s="22">
+        <v>43042</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>38</v>
       </c>
       <c r="D48" s="23">
         <v>3</v>
       </c>
-      <c r="E48" s="23"/>
+      <c r="E48" s="33">
+        <v>2</v>
+      </c>
       <c r="F48" s="24">
+        <v>3</v>
+      </c>
+      <c r="G48" s="25">
         <v>0</v>
       </c>
-      <c r="G48" s="24"/>
-      <c r="H48" s="25">
+      <c r="H48" s="26">
         <v>3</v>
       </c>
-      <c r="I48" s="25"/>
-      <c r="J48" s="27">
+      <c r="I48" s="27">
+        <v>4</v>
+      </c>
+      <c r="J48" s="28">
         <v>3</v>
       </c>
-      <c r="K48" s="27"/>
-      <c r="L48" s="28">
-        <v>0</v>
-      </c>
-      <c r="M48" s="28"/>
+      <c r="K48" s="34">
+        <v>5</v>
+      </c>
+      <c r="L48" s="32">
+        <v>3</v>
+      </c>
+      <c r="M48" s="29">
+        <v>7</v>
+      </c>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
@@ -2810,23 +3286,39 @@
     <row r="49" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
-      <c r="C49" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
+      <c r="C49" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="23">
+        <v>3</v>
+      </c>
+      <c r="E49" s="33">
+        <v>3</v>
+      </c>
       <c r="F49" s="24">
+        <v>0</v>
+      </c>
+      <c r="G49" s="25">
+        <v>1</v>
+      </c>
+      <c r="H49" s="26">
         <v>3</v>
       </c>
-      <c r="G49" s="24"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="28">
+      <c r="I49" s="27">
+        <v>1</v>
+      </c>
+      <c r="J49" s="28">
         <v>3</v>
       </c>
-      <c r="M49" s="28"/>
+      <c r="K49" s="34">
+        <v>2</v>
+      </c>
+      <c r="L49" s="32">
+        <v>0</v>
+      </c>
+      <c r="M49" s="29">
+        <v>1</v>
+      </c>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
       <c r="P49" s="13"/>
@@ -2842,25 +3334,39 @@
       <c r="Z49" s="13"/>
     </row>
     <row r="50" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B50" s="46">
-        <v>43042</v>
-      </c>
-      <c r="C50" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="58"/>
-      <c r="M50" s="58"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="33">
+        <v>0</v>
+      </c>
+      <c r="E50" s="33">
+        <v>0</v>
+      </c>
+      <c r="F50" s="24">
+        <v>3</v>
+      </c>
+      <c r="G50" s="25">
+        <v>2</v>
+      </c>
+      <c r="H50" s="27">
+        <v>0</v>
+      </c>
+      <c r="I50" s="27">
+        <v>0</v>
+      </c>
+      <c r="J50" s="34">
+        <v>0</v>
+      </c>
+      <c r="K50" s="34">
+        <v>0</v>
+      </c>
+      <c r="L50" s="32">
+        <v>3</v>
+      </c>
+      <c r="M50" s="32"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
       <c r="P50" s="13"/>
@@ -2876,51 +3382,25 @@
       <c r="Z50" s="13"/>
     </row>
     <row r="51" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="48"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" s="50">
-        <f t="shared" ref="D51:E51" si="1">SUM(D27:D48)</f>
-        <v>30</v>
-      </c>
-      <c r="E51" s="50">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="F51" s="50">
-        <f>SUM(F27:F50)</f>
-        <v>32</v>
-      </c>
-      <c r="G51" s="50">
-        <f t="shared" ref="G51:M51" si="2">SUM(G27:G48)</f>
-        <v>13</v>
-      </c>
-      <c r="H51" s="50">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="I51" s="50">
-        <f t="shared" si="2"/>
-        <v>13.5</v>
-      </c>
-      <c r="J51" s="50">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="K51" s="50">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="L51" s="50">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="M51" s="50">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
+      <c r="A51" s="14"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="27">
+        <v>0</v>
+      </c>
+      <c r="I51" s="27">
+        <v>3</v>
+      </c>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
       <c r="P51" s="13"/>
@@ -2936,35 +3416,19 @@
       <c r="Z51" s="13"/>
     </row>
     <row r="52" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="22">
-        <v>43045</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="23">
-        <v>2</v>
-      </c>
-      <c r="E52" s="23"/>
-      <c r="F52" s="24">
-        <v>2</v>
-      </c>
-      <c r="G52" s="24"/>
-      <c r="H52" s="25">
-        <v>2</v>
-      </c>
-      <c r="I52" s="25"/>
-      <c r="J52" s="27">
-        <v>2</v>
-      </c>
-      <c r="K52" s="27"/>
-      <c r="L52" s="28">
-        <v>2</v>
-      </c>
-      <c r="M52" s="28"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="61"/>
+      <c r="M52" s="61"/>
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
       <c r="P52" s="13"/>
@@ -2980,31 +3444,25 @@
       <c r="Z52" s="13"/>
     </row>
     <row r="53" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="23">
-        <v>2</v>
-      </c>
-      <c r="E53" s="23"/>
-      <c r="F53" s="24">
-        <v>2</v>
-      </c>
-      <c r="G53" s="24"/>
-      <c r="H53" s="25">
-        <v>2</v>
-      </c>
-      <c r="I53" s="25"/>
-      <c r="J53" s="27">
-        <v>2</v>
-      </c>
-      <c r="K53" s="27"/>
-      <c r="L53" s="28">
-        <v>2</v>
-      </c>
-      <c r="M53" s="28"/>
+      <c r="A53" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="50">
+        <v>43042</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="61"/>
+      <c r="M53" s="61"/>
       <c r="N53" s="13"/>
       <c r="O53" s="13"/>
       <c r="P53" s="13"/>
@@ -3022,29 +3480,17 @@
     <row r="54" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
       <c r="B54" s="22"/>
-      <c r="C54" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="23">
-        <v>2</v>
-      </c>
+      <c r="C54" s="30"/>
+      <c r="D54" s="23"/>
       <c r="E54" s="23"/>
-      <c r="F54" s="24">
-        <v>2</v>
-      </c>
+      <c r="F54" s="24"/>
       <c r="G54" s="24"/>
-      <c r="H54" s="25">
-        <v>2</v>
-      </c>
-      <c r="I54" s="25"/>
-      <c r="J54" s="27">
-        <v>2</v>
-      </c>
-      <c r="K54" s="27"/>
-      <c r="L54" s="28">
-        <v>2</v>
-      </c>
-      <c r="M54" s="28"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="29"/>
       <c r="N54" s="13"/>
       <c r="O54" s="13"/>
       <c r="P54" s="13"/>
@@ -3061,18 +3507,40 @@
     </row>
     <row r="55" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="23"/>
+      <c r="B55" s="62">
+        <v>43043</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="33">
+        <v>0</v>
+      </c>
       <c r="E55" s="23"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
+      <c r="F55" s="25">
+        <v>0</v>
+      </c>
+      <c r="G55" s="25">
+        <v>0</v>
+      </c>
+      <c r="H55" s="27">
+        <v>0</v>
+      </c>
+      <c r="I55" s="27">
+        <v>0</v>
+      </c>
+      <c r="J55" s="34">
+        <v>0</v>
+      </c>
+      <c r="K55" s="34">
+        <v>2</v>
+      </c>
+      <c r="L55" s="29">
+        <v>0</v>
+      </c>
+      <c r="M55" s="29">
+        <v>4</v>
+      </c>
       <c r="N55" s="13"/>
       <c r="O55" s="13"/>
       <c r="P55" s="13"/>
@@ -3088,33 +3556,37 @@
       <c r="Z55" s="13"/>
     </row>
     <row r="56" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22">
-        <v>43046</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" s="23">
+      <c r="A56" s="14"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="63">
+        <v>0</v>
+      </c>
+      <c r="E56" s="57"/>
+      <c r="F56" s="64">
+        <v>0</v>
+      </c>
+      <c r="G56" s="65">
+        <v>0</v>
+      </c>
+      <c r="H56" s="27">
+        <v>0</v>
+      </c>
+      <c r="I56" s="27">
         <v>3</v>
       </c>
-      <c r="E56" s="23"/>
-      <c r="F56" s="24">
-        <v>3</v>
-      </c>
-      <c r="G56" s="24"/>
-      <c r="H56" s="25">
-        <v>3</v>
-      </c>
-      <c r="I56" s="25"/>
-      <c r="J56" s="27">
-        <v>3</v>
-      </c>
-      <c r="K56" s="27"/>
-      <c r="L56" s="28">
-        <v>3</v>
-      </c>
-      <c r="M56" s="28"/>
+      <c r="J56" s="66">
+        <v>0</v>
+      </c>
+      <c r="K56" s="66">
+        <v>0</v>
+      </c>
+      <c r="L56" s="67">
+        <v>0</v>
+      </c>
+      <c r="M56" s="61"/>
       <c r="N56" s="13"/>
       <c r="O56" s="13"/>
       <c r="P56" s="13"/>
@@ -3130,31 +3602,19 @@
       <c r="Z56" s="13"/>
     </row>
     <row r="57" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" s="23">
-        <v>3</v>
-      </c>
-      <c r="E57" s="23"/>
-      <c r="F57" s="24">
-        <v>3</v>
-      </c>
-      <c r="G57" s="24"/>
-      <c r="H57" s="25">
-        <v>3</v>
-      </c>
-      <c r="I57" s="25"/>
-      <c r="J57" s="27">
-        <v>3</v>
-      </c>
-      <c r="K57" s="27"/>
-      <c r="L57" s="28">
-        <v>3</v>
-      </c>
-      <c r="M57" s="28"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="61"/>
+      <c r="M57" s="61"/>
       <c r="N57" s="13"/>
       <c r="O57" s="13"/>
       <c r="P57" s="13"/>
@@ -3170,29 +3630,39 @@
       <c r="Z57" s="13"/>
     </row>
     <row r="58" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="23" t="s">
-        <v>20</v>
+      <c r="A58" s="14"/>
+      <c r="B58" s="68">
+        <v>43044</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="33">
+        <v>0</v>
       </c>
       <c r="E58" s="23"/>
-      <c r="F58" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" s="24"/>
-      <c r="H58" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" s="25"/>
-      <c r="J58" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="K58" s="27"/>
-      <c r="L58" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="M58" s="28"/>
+      <c r="F58" s="25">
+        <v>0</v>
+      </c>
+      <c r="G58" s="25">
+        <v>2</v>
+      </c>
+      <c r="H58" s="27">
+        <v>0</v>
+      </c>
+      <c r="I58" s="27">
+        <v>8</v>
+      </c>
+      <c r="J58" s="34">
+        <v>0</v>
+      </c>
+      <c r="K58" s="34">
+        <v>0</v>
+      </c>
+      <c r="L58" s="29">
+        <v>0</v>
+      </c>
+      <c r="M58" s="32"/>
       <c r="N58" s="13"/>
       <c r="O58" s="13"/>
       <c r="P58" s="13"/>
@@ -3208,33 +3678,23 @@
       <c r="Z58" s="13"/>
     </row>
     <row r="59" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22">
-        <v>43047</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D59" s="23">
-        <v>2</v>
-      </c>
+      <c r="A59" s="14"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="33"/>
       <c r="E59" s="23"/>
-      <c r="F59" s="24">
-        <v>2</v>
-      </c>
-      <c r="G59" s="24"/>
-      <c r="H59" s="25">
-        <v>2</v>
-      </c>
-      <c r="I59" s="25"/>
-      <c r="J59" s="27">
-        <v>2</v>
-      </c>
-      <c r="K59" s="27"/>
-      <c r="L59" s="28">
-        <v>2</v>
-      </c>
-      <c r="M59" s="28"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29">
+        <v>4</v>
+      </c>
       <c r="N59" s="13"/>
       <c r="O59" s="13"/>
       <c r="P59" s="13"/>
@@ -3250,31 +3710,51 @@
       <c r="Z59" s="13"/>
     </row>
     <row r="60" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D60" s="23">
-        <v>2</v>
-      </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="24">
-        <v>2</v>
-      </c>
-      <c r="G60" s="24"/>
-      <c r="H60" s="25">
-        <v>2</v>
-      </c>
-      <c r="I60" s="25"/>
-      <c r="J60" s="27">
-        <v>2</v>
-      </c>
-      <c r="K60" s="27"/>
-      <c r="L60" s="28">
-        <v>2</v>
-      </c>
-      <c r="M60" s="28"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="54">
+        <f>SUM(D28:D49)</f>
+        <v>30</v>
+      </c>
+      <c r="E60" s="54">
+        <f>SUM(E28:E58)</f>
+        <v>30.5</v>
+      </c>
+      <c r="F60" s="54">
+        <f>SUM(F28:F53)</f>
+        <v>32</v>
+      </c>
+      <c r="G60" s="54">
+        <f t="shared" ref="G60:I60" si="1">SUM(G28:G58)</f>
+        <v>32</v>
+      </c>
+      <c r="H60" s="54">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="I60" s="54">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="J60" s="54">
+        <f>SUM(J28:J49)</f>
+        <v>28</v>
+      </c>
+      <c r="K60" s="54">
+        <f>SUM(K28:K58)</f>
+        <v>34.5</v>
+      </c>
+      <c r="L60" s="54">
+        <f>SUM(L28:L49)</f>
+        <v>27</v>
+      </c>
+      <c r="M60" s="54">
+        <f>SUM(M28:M59)</f>
+        <v>45</v>
+      </c>
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
       <c r="P60" s="13"/>
@@ -3290,10 +3770,14 @@
       <c r="Z60" s="13"/>
     </row>
     <row r="61" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="29" t="s">
-        <v>48</v>
+      <c r="A61" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="22">
+        <v>43045</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="D61" s="23">
         <v>2</v>
@@ -3302,19 +3786,27 @@
       <c r="F61" s="24">
         <v>2</v>
       </c>
-      <c r="G61" s="24"/>
-      <c r="H61" s="25">
+      <c r="G61" s="25">
+        <v>4</v>
+      </c>
+      <c r="H61" s="26">
         <v>2</v>
       </c>
-      <c r="I61" s="25"/>
-      <c r="J61" s="27">
+      <c r="I61" s="27">
+        <v>3</v>
+      </c>
+      <c r="J61" s="28">
         <v>2</v>
       </c>
-      <c r="K61" s="27"/>
-      <c r="L61" s="28">
+      <c r="K61" s="34">
+        <v>0</v>
+      </c>
+      <c r="L61" s="32">
         <v>2</v>
       </c>
-      <c r="M61" s="28"/>
+      <c r="M61" s="29">
+        <v>0</v>
+      </c>
       <c r="N61" s="13"/>
       <c r="O61" s="13"/>
       <c r="P61" s="13"/>
@@ -3332,17 +3824,37 @@
     <row r="62" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="23"/>
+      <c r="C62" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="23">
+        <v>2</v>
+      </c>
       <c r="E62" s="23"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
+      <c r="F62" s="24">
+        <v>2</v>
+      </c>
+      <c r="G62" s="25">
+        <v>2</v>
+      </c>
+      <c r="H62" s="26">
+        <v>2</v>
+      </c>
+      <c r="I62" s="27">
+        <v>0</v>
+      </c>
+      <c r="J62" s="28">
+        <v>2</v>
+      </c>
+      <c r="K62" s="34">
+        <v>6</v>
+      </c>
+      <c r="L62" s="32">
+        <v>2</v>
+      </c>
+      <c r="M62" s="29">
+        <v>0</v>
+      </c>
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
       <c r="P62" s="13"/>
@@ -3359,20 +3871,38 @@
     </row>
     <row r="63" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="22">
-        <v>43048</v>
-      </c>
-      <c r="C63" s="29"/>
-      <c r="D63" s="23"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="23">
+        <v>2</v>
+      </c>
       <c r="E63" s="23"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
+      <c r="F63" s="24">
+        <v>2</v>
+      </c>
+      <c r="G63" s="25">
+        <v>1</v>
+      </c>
+      <c r="H63" s="26">
+        <v>2</v>
+      </c>
+      <c r="I63" s="27">
+        <v>0</v>
+      </c>
+      <c r="J63" s="28">
+        <v>2</v>
+      </c>
+      <c r="K63" s="34">
+        <v>1</v>
+      </c>
+      <c r="L63" s="32">
+        <v>2</v>
+      </c>
+      <c r="M63" s="29">
+        <v>7</v>
+      </c>
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
       <c r="P63" s="13"/>
@@ -3390,17 +3920,17 @@
     <row r="64" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
       <c r="B64" s="22"/>
-      <c r="C64" s="29"/>
+      <c r="C64" s="30"/>
       <c r="D64" s="23"/>
       <c r="E64" s="23"/>
       <c r="F64" s="24"/>
       <c r="G64" s="24"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
       <c r="P64" s="13"/>
@@ -3416,25 +3946,35 @@
       <c r="Z64" s="13"/>
     </row>
     <row r="65" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B65" s="46">
-        <v>43047</v>
-      </c>
-      <c r="C65" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="57"/>
-      <c r="K65" s="57"/>
-      <c r="L65" s="58"/>
-      <c r="M65" s="58"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="22">
+        <v>43046</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="25">
+        <v>3</v>
+      </c>
+      <c r="G65" s="25">
+        <v>3</v>
+      </c>
+      <c r="H65" s="27">
+        <v>0</v>
+      </c>
+      <c r="I65" s="27">
+        <v>2</v>
+      </c>
+      <c r="J65" s="28"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="29">
+        <v>0</v>
+      </c>
+      <c r="M65" s="29">
+        <v>5</v>
+      </c>
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
       <c r="P65" s="13"/>
@@ -3450,50 +3990,32 @@
       <c r="Z65" s="13"/>
     </row>
     <row r="66" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="48"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" s="50">
-        <f t="shared" ref="D66:M66" si="3">SUM(D52:D65)</f>
-        <v>18</v>
-      </c>
-      <c r="E66" s="50">
-        <f t="shared" si="3"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="25">
+        <v>2</v>
+      </c>
+      <c r="G66" s="25">
+        <v>2</v>
+      </c>
+      <c r="H66" s="27">
         <v>0</v>
       </c>
-      <c r="F66" s="50">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="G66" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="50">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="I66" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="50">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="K66" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L66" s="50">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="M66" s="50">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="I66" s="27">
+        <v>1</v>
+      </c>
+      <c r="J66" s="28"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="29">
+        <v>1</v>
+      </c>
+      <c r="M66" s="29">
+        <v>2</v>
       </c>
       <c r="N66" s="13"/>
       <c r="O66" s="13"/>
@@ -3510,19 +4032,33 @@
       <c r="Z66" s="13"/>
     </row>
     <row r="67" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="59"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="60"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="60"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="25">
+        <v>2</v>
+      </c>
+      <c r="G67" s="25">
+        <v>1</v>
+      </c>
+      <c r="H67" s="27">
+        <v>0</v>
+      </c>
+      <c r="I67" s="27">
+        <v>1</v>
+      </c>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="29">
+        <v>1</v>
+      </c>
+      <c r="M67" s="29">
+        <v>1</v>
+      </c>
       <c r="N67" s="13"/>
       <c r="O67" s="13"/>
       <c r="P67" s="13"/>
@@ -3538,50 +4074,32 @@
       <c r="Z67" s="13"/>
     </row>
     <row r="68" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="61"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="D68" s="63">
-        <f t="shared" ref="D68:M68" si="4">SUM(D66,D26,D51)</f>
-        <v>78</v>
-      </c>
-      <c r="E68" s="63">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="F68" s="64">
-        <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="G68" s="64">
-        <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="H68" s="65">
-        <f t="shared" si="4"/>
-        <v>79</v>
-      </c>
-      <c r="I68" s="65">
-        <f t="shared" si="4"/>
-        <v>29.5</v>
-      </c>
-      <c r="J68" s="66">
-        <f t="shared" si="4"/>
-        <v>76</v>
-      </c>
-      <c r="K68" s="66">
-        <f t="shared" si="4"/>
-        <v>28.5</v>
-      </c>
-      <c r="L68" s="67">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="M68" s="67">
-        <f t="shared" si="4"/>
-        <v>14</v>
+      <c r="A68" s="21"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="25">
+        <v>0</v>
+      </c>
+      <c r="G68" s="25">
+        <v>0</v>
+      </c>
+      <c r="H68" s="27">
+        <v>0</v>
+      </c>
+      <c r="I68" s="27">
+        <v>1</v>
+      </c>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="29">
+        <v>0</v>
+      </c>
+      <c r="M68" s="29">
+        <v>0</v>
       </c>
       <c r="N68" s="13"/>
       <c r="O68" s="13"/>
@@ -3598,19 +4116,33 @@
       <c r="Z68" s="13"/>
     </row>
     <row r="69" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="25">
+        <v>0</v>
+      </c>
+      <c r="G69" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="H69" s="27">
+        <v>0</v>
+      </c>
+      <c r="I69" s="27">
+        <v>2</v>
+      </c>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="29">
+        <v>0</v>
+      </c>
+      <c r="M69" s="29">
+        <v>0</v>
+      </c>
       <c r="N69" s="13"/>
       <c r="O69" s="13"/>
       <c r="P69" s="13"/>
@@ -3626,19 +4158,33 @@
       <c r="Z69" s="13"/>
     </row>
     <row r="70" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="25">
+        <v>2</v>
+      </c>
+      <c r="G70" s="25">
+        <v>2</v>
+      </c>
+      <c r="H70" s="27">
+        <v>0</v>
+      </c>
+      <c r="I70" s="27">
+        <v>1</v>
+      </c>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="29">
+        <v>0</v>
+      </c>
+      <c r="M70" s="29">
+        <v>0</v>
+      </c>
       <c r="N70" s="13"/>
       <c r="O70" s="13"/>
       <c r="P70" s="13"/>
@@ -3654,19 +4200,33 @@
       <c r="Z70" s="13"/>
     </row>
     <row r="71" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="25">
+        <v>0</v>
+      </c>
+      <c r="G71" s="25">
+        <v>0</v>
+      </c>
+      <c r="H71" s="27">
+        <v>0</v>
+      </c>
+      <c r="I71" s="27">
+        <v>0</v>
+      </c>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="29">
+        <v>1</v>
+      </c>
+      <c r="M71" s="29">
+        <v>1</v>
+      </c>
       <c r="N71" s="13"/>
       <c r="O71" s="13"/>
       <c r="P71" s="13"/>
@@ -3682,19 +4242,33 @@
       <c r="Z71" s="13"/>
     </row>
     <row r="72" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="25">
+        <v>2</v>
+      </c>
+      <c r="G72" s="25">
+        <v>2</v>
+      </c>
+      <c r="H72" s="27">
+        <v>1</v>
+      </c>
+      <c r="I72" s="27">
+        <v>1</v>
+      </c>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="29">
+        <v>2</v>
+      </c>
+      <c r="M72" s="29">
+        <v>2</v>
+      </c>
       <c r="N72" s="13"/>
       <c r="O72" s="13"/>
       <c r="P72" s="13"/>
@@ -3710,19 +4284,33 @@
       <c r="Z72" s="13"/>
     </row>
     <row r="73" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="25">
+        <v>0</v>
+      </c>
+      <c r="G73" s="25">
+        <v>0</v>
+      </c>
+      <c r="H73" s="27">
+        <v>0</v>
+      </c>
+      <c r="I73" s="27">
+        <v>0</v>
+      </c>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="29">
+        <v>1</v>
+      </c>
+      <c r="M73" s="29">
+        <v>0.5</v>
+      </c>
       <c r="N73" s="13"/>
       <c r="O73" s="13"/>
       <c r="P73" s="13"/>
@@ -3738,19 +4326,33 @@
       <c r="Z73" s="13"/>
     </row>
     <row r="74" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="25">
+        <v>0</v>
+      </c>
+      <c r="G74" s="25">
+        <v>0</v>
+      </c>
+      <c r="H74" s="27">
+        <v>3</v>
+      </c>
+      <c r="I74" s="27">
+        <v>4</v>
+      </c>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="29">
+        <v>0</v>
+      </c>
+      <c r="M74" s="29">
+        <v>3</v>
+      </c>
       <c r="N74" s="13"/>
       <c r="O74" s="13"/>
       <c r="P74" s="13"/>
@@ -3766,19 +4368,33 @@
       <c r="Z74" s="13"/>
     </row>
     <row r="75" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="25">
+        <v>0</v>
+      </c>
+      <c r="G75" s="25">
+        <v>0</v>
+      </c>
+      <c r="H75" s="27">
+        <v>3</v>
+      </c>
+      <c r="I75" s="27">
+        <v>3</v>
+      </c>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="29">
+        <v>0</v>
+      </c>
+      <c r="M75" s="29">
+        <v>2</v>
+      </c>
       <c r="N75" s="13"/>
       <c r="O75" s="13"/>
       <c r="P75" s="13"/>
@@ -3794,19 +4410,33 @@
       <c r="Z75" s="13"/>
     </row>
     <row r="76" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="25">
+        <v>0</v>
+      </c>
+      <c r="G76" s="25">
+        <v>2</v>
+      </c>
+      <c r="H76" s="27">
+        <v>1</v>
+      </c>
+      <c r="I76" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="29">
+        <v>0</v>
+      </c>
+      <c r="M76" s="29">
+        <v>0</v>
+      </c>
       <c r="N76" s="13"/>
       <c r="O76" s="13"/>
       <c r="P76" s="13"/>
@@ -3822,19 +4452,33 @@
       <c r="Z76" s="13"/>
     </row>
     <row r="77" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="25">
+        <v>0</v>
+      </c>
+      <c r="G77" s="25">
+        <v>0</v>
+      </c>
+      <c r="H77" s="27">
+        <v>0</v>
+      </c>
+      <c r="I77" s="27">
+        <v>0</v>
+      </c>
+      <c r="J77" s="28"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="29">
+        <v>3</v>
+      </c>
+      <c r="M77" s="29">
+        <v>3</v>
+      </c>
       <c r="N77" s="13"/>
       <c r="O77" s="13"/>
       <c r="P77" s="13"/>
@@ -3850,19 +4494,33 @@
       <c r="Z77" s="13"/>
     </row>
     <row r="78" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="25">
+        <v>0</v>
+      </c>
+      <c r="G78" s="25">
+        <v>0</v>
+      </c>
+      <c r="H78" s="27">
+        <v>0</v>
+      </c>
+      <c r="I78" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="J78" s="28"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="29">
+        <v>0</v>
+      </c>
+      <c r="M78" s="29">
+        <v>0</v>
+      </c>
       <c r="N78" s="13"/>
       <c r="O78" s="13"/>
       <c r="P78" s="13"/>
@@ -3878,19 +4536,19 @@
       <c r="Z78" s="13"/>
     </row>
     <row r="79" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
+      <c r="A79" s="72"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="73"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="74"/>
+      <c r="I79" s="59"/>
+      <c r="J79" s="66"/>
+      <c r="K79" s="60"/>
+      <c r="L79" s="67"/>
+      <c r="M79" s="61"/>
       <c r="N79" s="13"/>
       <c r="O79" s="13"/>
       <c r="P79" s="13"/>
@@ -3906,19 +4564,31 @@
       <c r="Z79" s="13"/>
     </row>
     <row r="80" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
+      <c r="A80" s="72"/>
+      <c r="B80" s="89">
+        <v>43047</v>
+      </c>
+      <c r="C80" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="91">
+        <v>0</v>
+      </c>
+      <c r="I80" s="91">
+        <v>2</v>
+      </c>
+      <c r="J80" s="92"/>
+      <c r="K80" s="92"/>
+      <c r="L80" s="93">
+        <v>0</v>
+      </c>
+      <c r="M80" s="93">
+        <v>2</v>
+      </c>
       <c r="N80" s="13"/>
       <c r="O80" s="13"/>
       <c r="P80" s="13"/>
@@ -3934,19 +4604,35 @@
       <c r="Z80" s="13"/>
     </row>
     <row r="81" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
+      <c r="A81" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="50">
+        <v>43047</v>
+      </c>
+      <c r="C81" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" s="63">
+        <v>0</v>
+      </c>
+      <c r="E81" s="57"/>
+      <c r="F81" s="64">
+        <v>0</v>
+      </c>
+      <c r="G81" s="58"/>
+      <c r="H81" s="74">
+        <v>0</v>
+      </c>
+      <c r="I81" s="59"/>
+      <c r="J81" s="66">
+        <v>0</v>
+      </c>
+      <c r="K81" s="60"/>
+      <c r="L81" s="67">
+        <v>0</v>
+      </c>
+      <c r="M81" s="61"/>
       <c r="N81" s="13"/>
       <c r="O81" s="13"/>
       <c r="P81" s="13"/>
@@ -3962,19 +4648,19 @@
       <c r="Z81" s="13"/>
     </row>
     <row r="82" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="32"/>
+      <c r="M82" s="32"/>
       <c r="N82" s="13"/>
       <c r="O82" s="13"/>
       <c r="P82" s="13"/>
@@ -3990,19 +4676,25 @@
       <c r="Z82" s="13"/>
     </row>
     <row r="83" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
+      <c r="A83" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="76">
+        <v>43049</v>
+      </c>
+      <c r="C83" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" s="57"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="59"/>
+      <c r="I83" s="59"/>
+      <c r="J83" s="60"/>
+      <c r="K83" s="60"/>
+      <c r="L83" s="61"/>
+      <c r="M83" s="61"/>
       <c r="N83" s="13"/>
       <c r="O83" s="13"/>
       <c r="P83" s="13"/>
@@ -4018,19 +4710,51 @@
       <c r="Z83" s="13"/>
     </row>
     <row r="84" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="13"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" s="54">
+        <f t="shared" ref="D84:M84" si="2">SUM(D61:D83)</f>
+        <v>6</v>
+      </c>
+      <c r="E84" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="54">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="G84" s="54">
+        <f t="shared" si="2"/>
+        <v>20.5</v>
+      </c>
+      <c r="H84" s="54">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="I84" s="54">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="J84" s="54">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K84" s="54">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L84" s="54">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="M84" s="54">
+        <f t="shared" si="2"/>
+        <v>28.5</v>
+      </c>
       <c r="N84" s="13"/>
       <c r="O84" s="13"/>
       <c r="P84" s="13"/>
@@ -4046,19 +4770,19 @@
       <c r="Z84" s="13"/>
     </row>
     <row r="85" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
+      <c r="A85" s="77"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="78"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="78"/>
+      <c r="H85" s="78"/>
+      <c r="I85" s="78"/>
+      <c r="J85" s="78"/>
+      <c r="K85" s="78"/>
+      <c r="L85" s="78"/>
+      <c r="M85" s="78"/>
       <c r="N85" s="13"/>
       <c r="O85" s="13"/>
       <c r="P85" s="13"/>
@@ -4074,19 +4798,51 @@
       <c r="Z85" s="13"/>
     </row>
     <row r="86" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
+      <c r="A86" s="79"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="D86" s="81">
+        <f t="shared" ref="D86:M86" si="3">SUM(D84,D27,D60)</f>
+        <v>66</v>
+      </c>
+      <c r="E86" s="81">
+        <f t="shared" si="3"/>
+        <v>57.5</v>
+      </c>
+      <c r="F86" s="82">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="G86" s="82">
+        <f t="shared" si="3"/>
+        <v>73.5</v>
+      </c>
+      <c r="H86" s="83">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="I86" s="83">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="J86" s="84">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="K86" s="84">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="L86" s="85">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="M86" s="85">
+        <f t="shared" si="3"/>
+        <v>108.5</v>
+      </c>
       <c r="N86" s="13"/>
       <c r="O86" s="13"/>
       <c r="P86" s="13"/>
@@ -5837,7 +6593,7 @@
       <c r="Y148" s="13"/>
       <c r="Z148" s="13"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="13"/>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -5865,7 +6621,7 @@
       <c r="Y149" s="13"/>
       <c r="Z149" s="13"/>
     </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="13"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -5893,7 +6649,7 @@
       <c r="Y150" s="13"/>
       <c r="Z150" s="13"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="13"/>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -5921,7 +6677,7 @@
       <c r="Y151" s="13"/>
       <c r="Z151" s="13"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="13"/>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
@@ -5949,7 +6705,7 @@
       <c r="Y152" s="13"/>
       <c r="Z152" s="13"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="13"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
@@ -5977,7 +6733,7 @@
       <c r="Y153" s="13"/>
       <c r="Z153" s="13"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="13"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
@@ -6005,7 +6761,7 @@
       <c r="Y154" s="13"/>
       <c r="Z154" s="13"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="13"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
@@ -6033,7 +6789,7 @@
       <c r="Y155" s="13"/>
       <c r="Z155" s="13"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="13"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -6061,7 +6817,7 @@
       <c r="Y156" s="13"/>
       <c r="Z156" s="13"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="13"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -6089,7 +6845,7 @@
       <c r="Y157" s="13"/>
       <c r="Z157" s="13"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="13"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -6117,7 +6873,7 @@
       <c r="Y158" s="13"/>
       <c r="Z158" s="13"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="13"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -6145,7 +6901,7 @@
       <c r="Y159" s="13"/>
       <c r="Z159" s="13"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="13"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -6173,7 +6929,7 @@
       <c r="Y160" s="13"/>
       <c r="Z160" s="13"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="13"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -6201,7 +6957,7 @@
       <c r="Y161" s="13"/>
       <c r="Z161" s="13"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="13"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -6229,7 +6985,7 @@
       <c r="Y162" s="13"/>
       <c r="Z162" s="13"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="13"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
@@ -6257,7 +7013,7 @@
       <c r="Y163" s="13"/>
       <c r="Z163" s="13"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="13"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -6285,7 +7041,7 @@
       <c r="Y164" s="13"/>
       <c r="Z164" s="13"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="13"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
@@ -6313,7 +7069,7 @@
       <c r="Y165" s="13"/>
       <c r="Z165" s="13"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="13"/>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -6341,7 +7097,7 @@
       <c r="Y166" s="13"/>
       <c r="Z166" s="13"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="13"/>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
@@ -6369,7 +7125,7 @@
       <c r="Y167" s="13"/>
       <c r="Z167" s="13"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="13"/>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
@@ -6397,7 +7153,7 @@
       <c r="Y168" s="13"/>
       <c r="Z168" s="13"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="13"/>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -6425,7 +7181,7 @@
       <c r="Y169" s="13"/>
       <c r="Z169" s="13"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="13"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
@@ -29777,6 +30533,570 @@
       <c r="Y1003" s="13"/>
       <c r="Z1003" s="13"/>
     </row>
+    <row r="1004" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1004" s="13"/>
+      <c r="B1004" s="13"/>
+      <c r="C1004" s="13"/>
+      <c r="D1004" s="13"/>
+      <c r="E1004" s="13"/>
+      <c r="F1004" s="13"/>
+      <c r="G1004" s="13"/>
+      <c r="H1004" s="13"/>
+      <c r="I1004" s="13"/>
+      <c r="J1004" s="13"/>
+      <c r="K1004" s="13"/>
+      <c r="L1004" s="13"/>
+      <c r="M1004" s="13"/>
+      <c r="N1004" s="13"/>
+      <c r="O1004" s="13"/>
+      <c r="P1004" s="13"/>
+      <c r="Q1004" s="13"/>
+      <c r="R1004" s="13"/>
+      <c r="S1004" s="13"/>
+      <c r="T1004" s="13"/>
+      <c r="U1004" s="13"/>
+      <c r="V1004" s="13"/>
+      <c r="W1004" s="13"/>
+      <c r="X1004" s="13"/>
+      <c r="Y1004" s="13"/>
+      <c r="Z1004" s="13"/>
+    </row>
+    <row r="1005" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1005" s="13"/>
+      <c r="B1005" s="13"/>
+      <c r="C1005" s="13"/>
+      <c r="D1005" s="13"/>
+      <c r="E1005" s="13"/>
+      <c r="F1005" s="13"/>
+      <c r="G1005" s="13"/>
+      <c r="H1005" s="13"/>
+      <c r="I1005" s="13"/>
+      <c r="J1005" s="13"/>
+      <c r="K1005" s="13"/>
+      <c r="L1005" s="13"/>
+      <c r="M1005" s="13"/>
+      <c r="N1005" s="13"/>
+      <c r="O1005" s="13"/>
+      <c r="P1005" s="13"/>
+      <c r="Q1005" s="13"/>
+      <c r="R1005" s="13"/>
+      <c r="S1005" s="13"/>
+      <c r="T1005" s="13"/>
+      <c r="U1005" s="13"/>
+      <c r="V1005" s="13"/>
+      <c r="W1005" s="13"/>
+      <c r="X1005" s="13"/>
+      <c r="Y1005" s="13"/>
+      <c r="Z1005" s="13"/>
+    </row>
+    <row r="1006" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1006" s="13"/>
+      <c r="B1006" s="13"/>
+      <c r="C1006" s="13"/>
+      <c r="D1006" s="13"/>
+      <c r="E1006" s="13"/>
+      <c r="F1006" s="13"/>
+      <c r="G1006" s="13"/>
+      <c r="H1006" s="13"/>
+      <c r="I1006" s="13"/>
+      <c r="J1006" s="13"/>
+      <c r="K1006" s="13"/>
+      <c r="L1006" s="13"/>
+      <c r="M1006" s="13"/>
+      <c r="N1006" s="13"/>
+      <c r="O1006" s="13"/>
+      <c r="P1006" s="13"/>
+      <c r="Q1006" s="13"/>
+      <c r="R1006" s="13"/>
+      <c r="S1006" s="13"/>
+      <c r="T1006" s="13"/>
+      <c r="U1006" s="13"/>
+      <c r="V1006" s="13"/>
+      <c r="W1006" s="13"/>
+      <c r="X1006" s="13"/>
+      <c r="Y1006" s="13"/>
+      <c r="Z1006" s="13"/>
+    </row>
+    <row r="1007" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1007" s="13"/>
+      <c r="B1007" s="13"/>
+      <c r="C1007" s="13"/>
+      <c r="D1007" s="13"/>
+      <c r="E1007" s="13"/>
+      <c r="F1007" s="13"/>
+      <c r="G1007" s="13"/>
+      <c r="H1007" s="13"/>
+      <c r="I1007" s="13"/>
+      <c r="J1007" s="13"/>
+      <c r="K1007" s="13"/>
+      <c r="L1007" s="13"/>
+      <c r="M1007" s="13"/>
+      <c r="N1007" s="13"/>
+      <c r="O1007" s="13"/>
+      <c r="P1007" s="13"/>
+      <c r="Q1007" s="13"/>
+      <c r="R1007" s="13"/>
+      <c r="S1007" s="13"/>
+      <c r="T1007" s="13"/>
+      <c r="U1007" s="13"/>
+      <c r="V1007" s="13"/>
+      <c r="W1007" s="13"/>
+      <c r="X1007" s="13"/>
+      <c r="Y1007" s="13"/>
+      <c r="Z1007" s="13"/>
+    </row>
+    <row r="1008" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1008" s="13"/>
+      <c r="B1008" s="13"/>
+      <c r="C1008" s="13"/>
+      <c r="D1008" s="13"/>
+      <c r="E1008" s="13"/>
+      <c r="F1008" s="13"/>
+      <c r="G1008" s="13"/>
+      <c r="H1008" s="13"/>
+      <c r="I1008" s="13"/>
+      <c r="J1008" s="13"/>
+      <c r="K1008" s="13"/>
+      <c r="L1008" s="13"/>
+      <c r="M1008" s="13"/>
+      <c r="N1008" s="13"/>
+      <c r="O1008" s="13"/>
+      <c r="P1008" s="13"/>
+      <c r="Q1008" s="13"/>
+      <c r="R1008" s="13"/>
+      <c r="S1008" s="13"/>
+      <c r="T1008" s="13"/>
+      <c r="U1008" s="13"/>
+      <c r="V1008" s="13"/>
+      <c r="W1008" s="13"/>
+      <c r="X1008" s="13"/>
+      <c r="Y1008" s="13"/>
+      <c r="Z1008" s="13"/>
+    </row>
+    <row r="1009" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1009" s="13"/>
+      <c r="B1009" s="13"/>
+      <c r="C1009" s="13"/>
+      <c r="D1009" s="13"/>
+      <c r="E1009" s="13"/>
+      <c r="F1009" s="13"/>
+      <c r="G1009" s="13"/>
+      <c r="H1009" s="13"/>
+      <c r="I1009" s="13"/>
+      <c r="J1009" s="13"/>
+      <c r="K1009" s="13"/>
+      <c r="L1009" s="13"/>
+      <c r="M1009" s="13"/>
+      <c r="N1009" s="13"/>
+      <c r="O1009" s="13"/>
+      <c r="P1009" s="13"/>
+      <c r="Q1009" s="13"/>
+      <c r="R1009" s="13"/>
+      <c r="S1009" s="13"/>
+      <c r="T1009" s="13"/>
+      <c r="U1009" s="13"/>
+      <c r="V1009" s="13"/>
+      <c r="W1009" s="13"/>
+      <c r="X1009" s="13"/>
+      <c r="Y1009" s="13"/>
+      <c r="Z1009" s="13"/>
+    </row>
+    <row r="1010" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1010" s="13"/>
+      <c r="B1010" s="13"/>
+      <c r="C1010" s="13"/>
+      <c r="D1010" s="13"/>
+      <c r="E1010" s="13"/>
+      <c r="F1010" s="13"/>
+      <c r="G1010" s="13"/>
+      <c r="H1010" s="13"/>
+      <c r="I1010" s="13"/>
+      <c r="J1010" s="13"/>
+      <c r="K1010" s="13"/>
+      <c r="L1010" s="13"/>
+      <c r="M1010" s="13"/>
+      <c r="N1010" s="13"/>
+      <c r="O1010" s="13"/>
+      <c r="P1010" s="13"/>
+      <c r="Q1010" s="13"/>
+      <c r="R1010" s="13"/>
+      <c r="S1010" s="13"/>
+      <c r="T1010" s="13"/>
+      <c r="U1010" s="13"/>
+      <c r="V1010" s="13"/>
+      <c r="W1010" s="13"/>
+      <c r="X1010" s="13"/>
+      <c r="Y1010" s="13"/>
+      <c r="Z1010" s="13"/>
+    </row>
+    <row r="1011" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1011" s="13"/>
+      <c r="B1011" s="13"/>
+      <c r="C1011" s="13"/>
+      <c r="D1011" s="13"/>
+      <c r="E1011" s="13"/>
+      <c r="F1011" s="13"/>
+      <c r="G1011" s="13"/>
+      <c r="H1011" s="13"/>
+      <c r="I1011" s="13"/>
+      <c r="J1011" s="13"/>
+      <c r="K1011" s="13"/>
+      <c r="L1011" s="13"/>
+      <c r="M1011" s="13"/>
+      <c r="N1011" s="13"/>
+      <c r="O1011" s="13"/>
+      <c r="P1011" s="13"/>
+      <c r="Q1011" s="13"/>
+      <c r="R1011" s="13"/>
+      <c r="S1011" s="13"/>
+      <c r="T1011" s="13"/>
+      <c r="U1011" s="13"/>
+      <c r="V1011" s="13"/>
+      <c r="W1011" s="13"/>
+      <c r="X1011" s="13"/>
+      <c r="Y1011" s="13"/>
+      <c r="Z1011" s="13"/>
+    </row>
+    <row r="1012" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1012" s="13"/>
+      <c r="B1012" s="13"/>
+      <c r="C1012" s="13"/>
+      <c r="D1012" s="13"/>
+      <c r="E1012" s="13"/>
+      <c r="F1012" s="13"/>
+      <c r="G1012" s="13"/>
+      <c r="H1012" s="13"/>
+      <c r="I1012" s="13"/>
+      <c r="J1012" s="13"/>
+      <c r="K1012" s="13"/>
+      <c r="L1012" s="13"/>
+      <c r="M1012" s="13"/>
+      <c r="N1012" s="13"/>
+      <c r="O1012" s="13"/>
+      <c r="P1012" s="13"/>
+      <c r="Q1012" s="13"/>
+      <c r="R1012" s="13"/>
+      <c r="S1012" s="13"/>
+      <c r="T1012" s="13"/>
+      <c r="U1012" s="13"/>
+      <c r="V1012" s="13"/>
+      <c r="W1012" s="13"/>
+      <c r="X1012" s="13"/>
+      <c r="Y1012" s="13"/>
+      <c r="Z1012" s="13"/>
+    </row>
+    <row r="1013" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1013" s="13"/>
+      <c r="B1013" s="13"/>
+      <c r="C1013" s="13"/>
+      <c r="D1013" s="13"/>
+      <c r="E1013" s="13"/>
+      <c r="F1013" s="13"/>
+      <c r="G1013" s="13"/>
+      <c r="H1013" s="13"/>
+      <c r="I1013" s="13"/>
+      <c r="J1013" s="13"/>
+      <c r="K1013" s="13"/>
+      <c r="L1013" s="13"/>
+      <c r="M1013" s="13"/>
+      <c r="N1013" s="13"/>
+      <c r="O1013" s="13"/>
+      <c r="P1013" s="13"/>
+      <c r="Q1013" s="13"/>
+      <c r="R1013" s="13"/>
+      <c r="S1013" s="13"/>
+      <c r="T1013" s="13"/>
+      <c r="U1013" s="13"/>
+      <c r="V1013" s="13"/>
+      <c r="W1013" s="13"/>
+      <c r="X1013" s="13"/>
+      <c r="Y1013" s="13"/>
+      <c r="Z1013" s="13"/>
+    </row>
+    <row r="1014" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1014" s="13"/>
+      <c r="B1014" s="13"/>
+      <c r="C1014" s="13"/>
+      <c r="D1014" s="13"/>
+      <c r="E1014" s="13"/>
+      <c r="F1014" s="13"/>
+      <c r="G1014" s="13"/>
+      <c r="H1014" s="13"/>
+      <c r="I1014" s="13"/>
+      <c r="J1014" s="13"/>
+      <c r="K1014" s="13"/>
+      <c r="L1014" s="13"/>
+      <c r="M1014" s="13"/>
+      <c r="N1014" s="13"/>
+      <c r="O1014" s="13"/>
+      <c r="P1014" s="13"/>
+      <c r="Q1014" s="13"/>
+      <c r="R1014" s="13"/>
+      <c r="S1014" s="13"/>
+      <c r="T1014" s="13"/>
+      <c r="U1014" s="13"/>
+      <c r="V1014" s="13"/>
+      <c r="W1014" s="13"/>
+      <c r="X1014" s="13"/>
+      <c r="Y1014" s="13"/>
+      <c r="Z1014" s="13"/>
+    </row>
+    <row r="1015" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1015" s="13"/>
+      <c r="B1015" s="13"/>
+      <c r="C1015" s="13"/>
+      <c r="D1015" s="13"/>
+      <c r="E1015" s="13"/>
+      <c r="F1015" s="13"/>
+      <c r="G1015" s="13"/>
+      <c r="H1015" s="13"/>
+      <c r="I1015" s="13"/>
+      <c r="J1015" s="13"/>
+      <c r="K1015" s="13"/>
+      <c r="L1015" s="13"/>
+      <c r="M1015" s="13"/>
+      <c r="N1015" s="13"/>
+      <c r="O1015" s="13"/>
+      <c r="P1015" s="13"/>
+      <c r="Q1015" s="13"/>
+      <c r="R1015" s="13"/>
+      <c r="S1015" s="13"/>
+      <c r="T1015" s="13"/>
+      <c r="U1015" s="13"/>
+      <c r="V1015" s="13"/>
+      <c r="W1015" s="13"/>
+      <c r="X1015" s="13"/>
+      <c r="Y1015" s="13"/>
+      <c r="Z1015" s="13"/>
+    </row>
+    <row r="1016" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1016" s="13"/>
+      <c r="B1016" s="13"/>
+      <c r="C1016" s="13"/>
+      <c r="D1016" s="13"/>
+      <c r="E1016" s="13"/>
+      <c r="F1016" s="13"/>
+      <c r="G1016" s="13"/>
+      <c r="H1016" s="13"/>
+      <c r="I1016" s="13"/>
+      <c r="J1016" s="13"/>
+      <c r="K1016" s="13"/>
+      <c r="L1016" s="13"/>
+      <c r="M1016" s="13"/>
+      <c r="N1016" s="13"/>
+      <c r="O1016" s="13"/>
+      <c r="P1016" s="13"/>
+      <c r="Q1016" s="13"/>
+      <c r="R1016" s="13"/>
+      <c r="S1016" s="13"/>
+      <c r="T1016" s="13"/>
+      <c r="U1016" s="13"/>
+      <c r="V1016" s="13"/>
+      <c r="W1016" s="13"/>
+      <c r="X1016" s="13"/>
+      <c r="Y1016" s="13"/>
+      <c r="Z1016" s="13"/>
+    </row>
+    <row r="1017" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1017" s="13"/>
+      <c r="B1017" s="13"/>
+      <c r="C1017" s="13"/>
+      <c r="D1017" s="13"/>
+      <c r="E1017" s="13"/>
+      <c r="F1017" s="13"/>
+      <c r="G1017" s="13"/>
+      <c r="H1017" s="13"/>
+      <c r="I1017" s="13"/>
+      <c r="J1017" s="13"/>
+      <c r="K1017" s="13"/>
+      <c r="L1017" s="13"/>
+      <c r="M1017" s="13"/>
+      <c r="N1017" s="13"/>
+      <c r="O1017" s="13"/>
+      <c r="P1017" s="13"/>
+      <c r="Q1017" s="13"/>
+      <c r="R1017" s="13"/>
+      <c r="S1017" s="13"/>
+      <c r="T1017" s="13"/>
+      <c r="U1017" s="13"/>
+      <c r="V1017" s="13"/>
+      <c r="W1017" s="13"/>
+      <c r="X1017" s="13"/>
+      <c r="Y1017" s="13"/>
+      <c r="Z1017" s="13"/>
+    </row>
+    <row r="1018" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1018" s="13"/>
+      <c r="B1018" s="13"/>
+      <c r="C1018" s="13"/>
+      <c r="D1018" s="13"/>
+      <c r="E1018" s="13"/>
+      <c r="F1018" s="13"/>
+      <c r="G1018" s="13"/>
+      <c r="H1018" s="13"/>
+      <c r="I1018" s="13"/>
+      <c r="J1018" s="13"/>
+      <c r="K1018" s="13"/>
+      <c r="L1018" s="13"/>
+      <c r="M1018" s="13"/>
+      <c r="N1018" s="13"/>
+      <c r="O1018" s="13"/>
+      <c r="P1018" s="13"/>
+      <c r="Q1018" s="13"/>
+      <c r="R1018" s="13"/>
+      <c r="S1018" s="13"/>
+      <c r="T1018" s="13"/>
+      <c r="U1018" s="13"/>
+      <c r="V1018" s="13"/>
+      <c r="W1018" s="13"/>
+      <c r="X1018" s="13"/>
+      <c r="Y1018" s="13"/>
+      <c r="Z1018" s="13"/>
+    </row>
+    <row r="1019" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1019" s="13"/>
+      <c r="B1019" s="13"/>
+      <c r="C1019" s="13"/>
+      <c r="D1019" s="13"/>
+      <c r="E1019" s="13"/>
+      <c r="F1019" s="13"/>
+      <c r="G1019" s="13"/>
+      <c r="H1019" s="13"/>
+      <c r="I1019" s="13"/>
+      <c r="J1019" s="13"/>
+      <c r="K1019" s="13"/>
+      <c r="L1019" s="13"/>
+      <c r="M1019" s="13"/>
+      <c r="N1019" s="13"/>
+      <c r="O1019" s="13"/>
+      <c r="P1019" s="13"/>
+      <c r="Q1019" s="13"/>
+      <c r="R1019" s="13"/>
+      <c r="S1019" s="13"/>
+      <c r="T1019" s="13"/>
+      <c r="U1019" s="13"/>
+      <c r="V1019" s="13"/>
+      <c r="W1019" s="13"/>
+      <c r="X1019" s="13"/>
+      <c r="Y1019" s="13"/>
+      <c r="Z1019" s="13"/>
+    </row>
+    <row r="1020" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1020" s="13"/>
+      <c r="B1020" s="13"/>
+      <c r="C1020" s="13"/>
+      <c r="D1020" s="13"/>
+      <c r="E1020" s="13"/>
+      <c r="F1020" s="13"/>
+      <c r="G1020" s="13"/>
+      <c r="H1020" s="13"/>
+      <c r="I1020" s="13"/>
+      <c r="J1020" s="13"/>
+      <c r="K1020" s="13"/>
+      <c r="L1020" s="13"/>
+      <c r="M1020" s="13"/>
+      <c r="N1020" s="13"/>
+      <c r="O1020" s="13"/>
+      <c r="P1020" s="13"/>
+      <c r="Q1020" s="13"/>
+      <c r="R1020" s="13"/>
+      <c r="S1020" s="13"/>
+      <c r="T1020" s="13"/>
+      <c r="U1020" s="13"/>
+      <c r="V1020" s="13"/>
+      <c r="W1020" s="13"/>
+      <c r="X1020" s="13"/>
+      <c r="Y1020" s="13"/>
+      <c r="Z1020" s="13"/>
+    </row>
+    <row r="1021" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1021" s="13"/>
+      <c r="B1021" s="13"/>
+      <c r="C1021" s="13"/>
+      <c r="D1021" s="13"/>
+      <c r="E1021" s="13"/>
+      <c r="F1021" s="13"/>
+      <c r="G1021" s="13"/>
+      <c r="H1021" s="13"/>
+      <c r="I1021" s="13"/>
+      <c r="J1021" s="13"/>
+      <c r="K1021" s="13"/>
+      <c r="L1021" s="13"/>
+      <c r="M1021" s="13"/>
+      <c r="N1021" s="13"/>
+      <c r="O1021" s="13"/>
+      <c r="P1021" s="13"/>
+      <c r="Q1021" s="13"/>
+      <c r="R1021" s="13"/>
+      <c r="S1021" s="13"/>
+      <c r="T1021" s="13"/>
+      <c r="U1021" s="13"/>
+      <c r="V1021" s="13"/>
+      <c r="W1021" s="13"/>
+      <c r="X1021" s="13"/>
+      <c r="Y1021" s="13"/>
+      <c r="Z1021" s="13"/>
+    </row>
+    <row r="1022" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N1022" s="13"/>
+      <c r="O1022" s="13"/>
+      <c r="P1022" s="13"/>
+      <c r="Q1022" s="13"/>
+      <c r="R1022" s="13"/>
+      <c r="S1022" s="13"/>
+      <c r="T1022" s="13"/>
+      <c r="U1022" s="13"/>
+      <c r="V1022" s="13"/>
+      <c r="W1022" s="13"/>
+      <c r="X1022" s="13"/>
+      <c r="Y1022" s="13"/>
+      <c r="Z1022" s="13"/>
+    </row>
+    <row r="1023" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N1023" s="13"/>
+      <c r="O1023" s="13"/>
+      <c r="P1023" s="13"/>
+      <c r="Q1023" s="13"/>
+      <c r="R1023" s="13"/>
+      <c r="S1023" s="13"/>
+      <c r="T1023" s="13"/>
+      <c r="U1023" s="13"/>
+      <c r="V1023" s="13"/>
+      <c r="W1023" s="13"/>
+      <c r="X1023" s="13"/>
+      <c r="Y1023" s="13"/>
+      <c r="Z1023" s="13"/>
+    </row>
+    <row r="1024" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N1024" s="13"/>
+      <c r="O1024" s="13"/>
+      <c r="P1024" s="13"/>
+      <c r="Q1024" s="13"/>
+      <c r="R1024" s="13"/>
+      <c r="S1024" s="13"/>
+      <c r="T1024" s="13"/>
+      <c r="U1024" s="13"/>
+      <c r="V1024" s="13"/>
+      <c r="W1024" s="13"/>
+      <c r="X1024" s="13"/>
+      <c r="Y1024" s="13"/>
+      <c r="Z1024" s="13"/>
+    </row>
+    <row r="1025" spans="14:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N1025" s="13"/>
+      <c r="O1025" s="13"/>
+      <c r="P1025" s="13"/>
+      <c r="Q1025" s="13"/>
+      <c r="R1025" s="13"/>
+      <c r="S1025" s="13"/>
+      <c r="T1025" s="13"/>
+      <c r="U1025" s="13"/>
+      <c r="V1025" s="13"/>
+      <c r="W1025" s="13"/>
+      <c r="X1025" s="13"/>
+      <c r="Y1025" s="13"/>
+      <c r="Z1025" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D3:E3"/>
@@ -29786,5 +31106,8 @@
     <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>